--- a/server/data/database.xlsx
+++ b/server/data/database.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ScreenTypes" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PixelSteps" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Cabinets" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="IngressProtection" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="166">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -262,6 +263,264 @@
   </si>
   <si>
     <t xml:space="preserve">P1.66 Pro, P1.53 Pro, P1.37 Pro, P1.25 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardObjectProtection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterProtection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 50 мм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет защиты от воды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от капель воды, падающих под углом до 15°.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от брызг воды, падающих под углом до 60°.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от брызг воды со всех сторон.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от струй воды с любого направления.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от сильных струй воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита при временном погружении в воду (до 1 м на 30 минут).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита при длительном погружении в воду (более 1 м на длительное время).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от высокотемпературной струи воды под высоким давлением.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от вертикальных капель воды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от сильных струй воды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита при временном погружении в воду.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита при длительном погружении в воду.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от высокотемпературной струи воды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 12,5 мм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 2,5 мм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 1 мм.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частичная защита от пыли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полная защита от пыли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP69</t>
   </si>
 </sst>
 </file>
@@ -276,6 +535,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -335,16 +595,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,41 +743,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -541,768 +805,768 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.04"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1324,628 +1588,1361 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="69.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="69.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>960</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>960</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>960</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>960</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="0" t="s">
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/database.xlsx
+++ b/server/data/database.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="174">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -274,15 +274,21 @@
     <t xml:space="preserve">waterProtection</t>
   </si>
   <si>
+    <t xml:space="preserve">IP00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет защиты от твердых предметов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет защиты от воды.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP01</t>
   </si>
   <si>
     <t xml:space="preserve">Защита от предметов диаметром более 50 мм.</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет защиты от воды.</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP02</t>
   </si>
   <si>
@@ -310,7 +316,7 @@
     <t xml:space="preserve">IP06</t>
   </si>
   <si>
-    <t xml:space="preserve">Защита от сильных струй воды</t>
+    <t xml:space="preserve">Защита от сильных струй воды (например, на палубе корабля).</t>
   </si>
   <si>
     <t xml:space="preserve">IP07</t>
@@ -331,6 +337,9 @@
     <t xml:space="preserve">Защита от высокотемпературной струи воды под высоким давлением.</t>
   </si>
   <si>
+    <t xml:space="preserve">IP10</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP11</t>
   </si>
   <si>
@@ -373,12 +382,15 @@
     <t xml:space="preserve">Защита от высокотемпературной струи воды.</t>
   </si>
   <si>
+    <t xml:space="preserve">IP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 12,5 мм.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP21</t>
   </si>
   <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 12,5 мм.</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP22</t>
   </si>
   <si>
@@ -403,12 +415,15 @@
     <t xml:space="preserve">IP29</t>
   </si>
   <si>
+    <t xml:space="preserve">IP30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 2,5 мм.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP31</t>
   </si>
   <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 2,5 мм.</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP32</t>
   </si>
   <si>
@@ -433,12 +448,15 @@
     <t xml:space="preserve">IP39</t>
   </si>
   <si>
+    <t xml:space="preserve">IP40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита от предметов диаметром более 1 мм.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP41</t>
   </si>
   <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 1 мм.</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP42</t>
   </si>
   <si>
@@ -463,12 +481,15 @@
     <t xml:space="preserve">IP49</t>
   </si>
   <si>
+    <t xml:space="preserve">IP50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частичная защита от пыли.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP51</t>
   </si>
   <si>
-    <t xml:space="preserve">Частичная защита от пыли.</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP52</t>
   </si>
   <si>
@@ -493,10 +514,13 @@
     <t xml:space="preserve">IP59</t>
   </si>
   <si>
+    <t xml:space="preserve">IP60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полная защита от пыли.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полная защита от пыли.</t>
   </si>
   <si>
     <t xml:space="preserve">IP62</t>
@@ -738,7 +762,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2228,17 +2252,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="68.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,10 +2292,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2303,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -2290,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -2301,7 +2325,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>93</v>
@@ -2312,7 +2336,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>95</v>
@@ -2323,7 +2347,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>97</v>
@@ -2334,7 +2358,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>99</v>
@@ -2345,7 +2369,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>101</v>
@@ -2356,7 +2380,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>103</v>
@@ -2367,10 +2391,10 @@
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,43 +2402,43 @@
         <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,54 +2446,54 @@
         <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,87 +2501,87 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2589,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2600,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,76 +2611,76 @@
         <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,10 +2688,10 @@
         <v>138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,10 +2699,10 @@
         <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2710,10 @@
         <v>140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,65 +2721,65 @@
         <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,10 +2787,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,10 +2798,10 @@
         <v>149</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,10 +2809,10 @@
         <v>150</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +2820,10 @@
         <v>151</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,54 +2831,54 @@
         <v>152</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2886,10 @@
         <v>158</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,10 +2897,10 @@
         <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,10 +2908,10 @@
         <v>160</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,10 +2919,10 @@
         <v>161</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2930,10 @@
         <v>162</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,32 +2941,109 @@
         <v>163</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/database.xlsx
+++ b/server/data/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ScreenTypes" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="176">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refreshFreq</t>
   </si>
   <si>
     <t xml:space="preserve">location</t>
@@ -821,17 +827,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.04"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,15 +857,21 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>160</v>
@@ -867,19 +879,25 @@
       <c r="D2" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+      <c r="E2" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>160</v>
@@ -887,19 +905,25 @@
       <c r="D3" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+      <c r="E3" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>160</v>
@@ -907,19 +931,25 @@
       <c r="D4" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
+      <c r="E4" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>160</v>
@@ -927,19 +957,25 @@
       <c r="D5" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>250</v>
@@ -947,19 +983,25 @@
       <c r="D6" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
+      <c r="E6" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>160</v>
@@ -967,19 +1009,25 @@
       <c r="D7" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
+      <c r="E7" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>160</v>
@@ -987,19 +1035,25 @@
       <c r="D8" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
+      <c r="E8" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>192</v>
@@ -1007,19 +1061,25 @@
       <c r="D9" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
+      <c r="E9" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>192</v>
@@ -1027,19 +1087,25 @@
       <c r="D10" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
+      <c r="E10" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>250</v>
@@ -1047,19 +1113,25 @@
       <c r="D11" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
+      <c r="E11" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>250</v>
@@ -1067,19 +1139,25 @@
       <c r="D12" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
+      <c r="E12" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>160</v>
@@ -1087,19 +1165,25 @@
       <c r="D13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
+      <c r="E13" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>160</v>
@@ -1107,19 +1191,25 @@
       <c r="D14" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
+      <c r="E14" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>160</v>
@@ -1127,19 +1217,25 @@
       <c r="D15" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
+      <c r="E15" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>160</v>
@@ -1147,19 +1243,25 @@
       <c r="D16" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
+      <c r="E16" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>160</v>
@@ -1167,19 +1269,25 @@
       <c r="D17" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
+      <c r="E17" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>160</v>
@@ -1187,19 +1295,25 @@
       <c r="D18" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
+      <c r="E18" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>160</v>
@@ -1207,19 +1321,25 @@
       <c r="D19" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
+      <c r="E19" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>160</v>
@@ -1227,19 +1347,25 @@
       <c r="D20" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
+      <c r="E20" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>160</v>
@@ -1247,19 +1373,25 @@
       <c r="D21" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
+      <c r="E21" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>160</v>
@@ -1267,19 +1399,25 @@
       <c r="D22" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
+      <c r="E22" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>160</v>
@@ -1287,19 +1425,25 @@
       <c r="D23" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>160</v>
@@ -1307,19 +1451,25 @@
       <c r="D24" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>160</v>
@@ -1327,19 +1477,25 @@
       <c r="D25" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>160</v>
@@ -1347,19 +1503,25 @@
       <c r="D26" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>192</v>
@@ -1367,19 +1529,25 @@
       <c r="D27" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>160</v>
@@ -1387,19 +1555,25 @@
       <c r="D28" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>160</v>
@@ -1407,19 +1581,25 @@
       <c r="D29" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>250</v>
@@ -1427,19 +1607,25 @@
       <c r="D30" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>160</v>
@@ -1447,19 +1633,25 @@
       <c r="D31" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>160</v>
@@ -1467,19 +1659,25 @@
       <c r="D32" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>250</v>
@@ -1487,19 +1685,25 @@
       <c r="D33" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>160</v>
@@ -1507,19 +1711,25 @@
       <c r="D34" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>160</v>
@@ -1527,19 +1737,25 @@
       <c r="D35" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
+      <c r="H35" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>160</v>
@@ -1547,19 +1763,25 @@
       <c r="D36" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
+      <c r="H36" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>192</v>
@@ -1567,19 +1789,25 @@
       <c r="D37" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>14</v>
+      <c r="H37" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>250</v>
@@ -1587,11 +1815,17 @@
       <c r="D38" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>14</v>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1639,36 +1873,36 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>960</v>
@@ -1692,21 +1926,21 @@
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>640</v>
@@ -1730,21 +1964,21 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>576</v>
@@ -1768,21 +2002,21 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>960</v>
@@ -1806,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>640</v>
@@ -1844,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>640</v>
@@ -1882,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>576</v>
@@ -1920,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>500</v>
@@ -1958,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>500</v>
@@ -1996,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>500</v>
@@ -2034,21 +2268,21 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>500</v>
@@ -2072,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>500</v>
@@ -2110,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>640</v>
@@ -2148,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
@@ -2157,12 +2391,12 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>480</v>
@@ -2186,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>6</v>
@@ -2195,12 +2429,12 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>480</v>
@@ -2224,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>6</v>
@@ -2233,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2254,8 +2488,8 @@
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2267,783 +2501,783 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
